--- a/data/trans_orig/P16A97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD65D4D4-CF8D-4AA7-AAB5-6E0A9FF1ECB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09FA448D-E2D5-4E75-8DF7-43A60A8154B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{950307A9-41AA-467D-AE2E-27D01D0847E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A9155B7-EAD1-4C08-A503-580EAE414E45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="526">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2007 (Tasa respuesta: 53,56%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,09%</t>
   </si>
   <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>5,2%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>93,2%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1306 +197,1300 @@
     <t>5,29%</t>
   </si>
   <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>98,82%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -2034,7 +2028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41D012E-716A-4AB3-97F5-19F858E8C35E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAABD649-AE1A-4BA2-848F-08B9A55A547A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3246,10 +3240,10 @@
         <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -3258,13 +3252,13 @@
         <v>23858</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -3273,13 +3267,13 @@
         <v>40281</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3285,7 @@
         <v>403</v>
       </c>
       <c r="D26" s="7">
-        <v>412605</v>
+        <v>412604</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>153</v>
@@ -3300,7 +3294,7 @@
         <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>327</v>
@@ -3309,13 +3303,13 @@
         <v>339841</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>730</v>
@@ -3324,10 +3318,10 @@
         <v>752446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>159</v>
@@ -3342,7 +3336,7 @@
         <v>420</v>
       </c>
       <c r="D27" s="7">
-        <v>429028</v>
+        <v>429027</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -3431,10 +3425,10 @@
         <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3443,13 @@
         <v>1947663</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>1364</v>
@@ -3464,13 +3458,13 @@
         <v>1399722</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>3242</v>
@@ -3479,13 +3473,13 @@
         <v>3347385</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,7 +3535,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E91FE1-4511-4D08-BA8F-26C393E895F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAF0886-9190-4B5E-A45F-DE94B98700C3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,7 +3576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3687,39 +3681,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,39 +3726,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,39 +3771,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3820,13 @@
         <v>47292</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -3841,13 +3835,13 @@
         <v>67879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -3856,13 +3850,13 @@
         <v>115171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3871,13 @@
         <v>248476</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -3892,13 +3886,13 @@
         <v>147559</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>378</v>
@@ -3907,13 +3901,13 @@
         <v>396034</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3975,13 @@
         <v>37025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -3996,13 +3990,13 @@
         <v>56546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -4011,13 +4005,13 @@
         <v>93571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4026,13 @@
         <v>149059</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -4047,13 +4041,13 @@
         <v>81376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>227</v>
@@ -4062,13 +4056,13 @@
         <v>230435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4130,13 @@
         <v>84399</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -4151,13 +4145,13 @@
         <v>133020</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -4166,13 +4160,13 @@
         <v>217420</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4181,13 @@
         <v>317348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -4202,13 +4196,13 @@
         <v>163439</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>452</v>
@@ -4217,13 +4211,13 @@
         <v>480786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4285,13 @@
         <v>19330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -4306,13 +4300,13 @@
         <v>30301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4321,13 +4315,13 @@
         <v>49631</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4336,13 @@
         <v>99164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4357,13 +4351,13 @@
         <v>41200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -4372,13 +4366,13 @@
         <v>140364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4440,13 @@
         <v>36832</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -4461,13 +4455,13 @@
         <v>49020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -4476,13 +4470,13 @@
         <v>85852</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4491,13 @@
         <v>112515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -4512,13 +4506,13 @@
         <v>61299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -4527,13 +4521,13 @@
         <v>173814</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4595,13 @@
         <v>74324</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -4616,13 +4610,13 @@
         <v>143722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4631,13 +4625,13 @@
         <v>218046</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,7 +4646,7 @@
         <v>316207</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>279</v>
@@ -4759,10 +4753,10 @@
         <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -4771,13 +4765,13 @@
         <v>94308</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -4786,13 +4780,13 @@
         <v>157667</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4801,13 @@
         <v>454003</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7">
         <v>312</v>
@@ -4822,13 +4816,13 @@
         <v>339486</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>738</v>
@@ -4837,13 +4831,13 @@
         <v>793489</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4905,13 @@
         <v>362561</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>529</v>
@@ -4926,13 +4920,13 @@
         <v>574797</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>865</v>
@@ -4941,13 +4935,13 @@
         <v>937358</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4956,13 @@
         <v>1696771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>984</v>
@@ -4977,13 +4971,13 @@
         <v>1058637</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>2602</v>
@@ -4992,13 +4986,13 @@
         <v>2755408</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,7 +5048,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5078,7 +5072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427CAC08-943E-46F1-A32E-95C886DFFC24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1399A980-3F76-429C-A698-862E14D24F0D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5095,7 +5089,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5202,13 +5196,13 @@
         <v>22506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -5217,13 +5211,13 @@
         <v>30243</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -5232,13 +5226,13 @@
         <v>52749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5247,13 @@
         <v>120666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -5268,13 +5262,13 @@
         <v>88055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -5283,13 +5277,13 @@
         <v>208720</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5351,13 @@
         <v>34766</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5372,13 +5366,13 @@
         <v>42491</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -5387,13 +5381,13 @@
         <v>77257</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5402,13 @@
         <v>260081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>166</v>
@@ -5423,28 +5417,28 @@
         <v>172479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>412</v>
       </c>
       <c r="N8" s="7">
-        <v>432560</v>
+        <v>432561</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,7 +5480,7 @@
         <v>482</v>
       </c>
       <c r="N9" s="7">
-        <v>509817</v>
+        <v>509818</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5512,13 +5506,13 @@
         <v>28027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -5527,13 +5521,13 @@
         <v>29116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -5542,13 +5536,13 @@
         <v>57143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5557,13 @@
         <v>157590</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>119</v>
@@ -5578,13 +5572,13 @@
         <v>114927</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>284</v>
@@ -5593,13 +5587,13 @@
         <v>272517</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5661,13 @@
         <v>38488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5682,13 +5676,13 @@
         <v>69716</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -5697,13 +5691,13 @@
         <v>108203</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5712,13 @@
         <v>144181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -5733,13 +5727,13 @@
         <v>98610</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -5748,13 +5742,13 @@
         <v>242792</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5816,13 @@
         <v>10045</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5837,13 +5831,13 @@
         <v>24355</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -5852,13 +5846,13 @@
         <v>34400</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5867,13 @@
         <v>119944</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5888,13 +5882,13 @@
         <v>76862</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -5903,13 +5897,13 @@
         <v>196807</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,13 +5971,13 @@
         <v>30394</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -5992,13 +5986,13 @@
         <v>45844</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -6007,13 +6001,13 @@
         <v>76237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6022,13 @@
         <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -6043,13 +6037,13 @@
         <v>99806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>240</v>
@@ -6058,13 +6052,13 @@
         <v>241536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6126,13 @@
         <v>24912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -6147,13 +6141,13 @@
         <v>65238</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -6162,13 +6156,13 @@
         <v>90150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>93</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6177,13 @@
         <v>358206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -6198,13 +6192,13 @@
         <v>297917</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>606</v>
@@ -6213,13 +6207,13 @@
         <v>656123</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>103</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6281,13 @@
         <v>60019</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -6302,13 +6296,13 @@
         <v>83660</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -6317,13 +6311,13 @@
         <v>143679</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6332,13 @@
         <v>401963</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>284</v>
@@ -6353,13 +6347,13 @@
         <v>297268</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>666</v>
@@ -6368,13 +6362,13 @@
         <v>699231</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6436,13 @@
         <v>249156</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>351</v>
@@ -6457,13 +6451,13 @@
         <v>390662</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>241</v>
       </c>
       <c r="M28" s="7">
         <v>595</v>
@@ -6472,13 +6466,13 @@
         <v>639818</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6487,13 @@
         <v>1704362</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>1227</v>
@@ -6508,13 +6502,13 @@
         <v>1245926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
         <v>2837</v>
@@ -6523,13 +6517,13 @@
         <v>2950287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>469</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,7 +6579,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6609,7 +6603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74253D2C-172A-4465-9C16-B5F8726B0593}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE9B48A-3041-403E-B140-DC95A6736356}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6626,7 +6620,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6733,13 +6727,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6748,13 +6742,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6763,13 +6757,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,10 +6778,10 @@
         <v>88636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -6799,10 +6793,10 @@
         <v>66717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6814,10 +6808,10 @@
         <v>155353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -6888,13 +6882,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>128</v>
+        <v>480</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6903,13 +6897,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6918,13 +6912,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,10 +6933,10 @@
         <v>254112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>483</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -6954,10 +6948,10 @@
         <v>195005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -6969,10 +6963,10 @@
         <v>449117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -7043,13 +7037,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7058,13 +7052,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7073,13 +7067,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,10 +7088,10 @@
         <v>131461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -7109,10 +7103,10 @@
         <v>112621</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -7124,10 +7118,10 @@
         <v>244082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -7198,13 +7192,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7213,13 +7207,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7228,13 +7222,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,10 +7243,10 @@
         <v>135809</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -7264,10 +7258,10 @@
         <v>150057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -7279,10 +7273,10 @@
         <v>285866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -7353,13 +7347,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7368,13 +7362,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7383,13 +7377,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,10 +7398,10 @@
         <v>101565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7419,10 +7413,10 @@
         <v>83375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -7434,10 +7428,10 @@
         <v>184940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -7508,13 +7502,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7523,13 +7517,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7538,13 +7532,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,10 +7553,10 @@
         <v>113623</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -7574,10 +7568,10 @@
         <v>97452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -7589,10 +7583,10 @@
         <v>211074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -7663,13 +7657,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7678,13 +7672,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7693,13 +7687,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,10 +7708,10 @@
         <v>243610</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -7729,10 +7723,10 @@
         <v>214131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -7744,10 +7738,10 @@
         <v>457741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -7818,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7833,13 +7827,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7848,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,10 +7863,10 @@
         <v>549657</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -7884,10 +7878,10 @@
         <v>423551</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -7899,10 +7893,10 @@
         <v>973207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>30</v>
@@ -7973,13 +7967,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7988,13 +7982,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8003,13 +7997,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,10 +8018,10 @@
         <v>1618473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>30</v>
@@ -8039,10 +8033,10 @@
         <v>1342908</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>30</v>
@@ -8054,10 +8048,10 @@
         <v>2961381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>30</v>
@@ -8116,7 +8110,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09FA448D-E2D5-4E75-8DF7-43A60A8154B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87E5261B-314D-43B5-B0BB-010501993D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A9155B7-EAD1-4C08-A503-580EAE414E45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFC8BBE4-77DC-4A1F-9239-4E0D6A5580AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="536">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2007 (Tasa respuesta: 53,56%)</t>
   </si>
@@ -77,504 +77,504 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
     <t>6,0%</t>
   </si>
   <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>87,44%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
@@ -587,583 +587,610 @@
     <t>15,99%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>31,51%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
   </si>
   <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2015 (Tasa respuesta: 52,25%)</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
   </si>
   <si>
     <t>79,83%</t>
   </si>
   <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>11,89%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
   </si>
   <si>
     <t>84,85%</t>
   </si>
   <si>
-    <t>88,11%</t>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
   </si>
   <si>
     <t>84,9%</t>
   </si>
   <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>79,79%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>15,25%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
   </si>
   <si>
     <t>30,83%</t>
@@ -1172,28 +1199,31 @@
     <t>25,81%</t>
   </si>
   <si>
-    <t>36,0%</t>
+    <t>36,27%</t>
   </si>
   <si>
     <t>78,93%</t>
   </si>
   <si>
-    <t>84,75%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>64,0%</t>
+    <t>63,73%</t>
   </si>
   <si>
     <t>74,19%</t>
@@ -1202,253 +1232,253 @@
     <t>7,73%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>75,94%</t>
   </si>
   <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>39,57%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>23,99%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>82,34%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>68,52%</t>
   </si>
   <si>
-    <t>60,43%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>76,01%</t>
   </si>
   <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>22,74%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>77,26%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>10,22%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>89,78%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>21,81%</t>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>19,24%</t>
+    <t>19,37%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>78,19%</t>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,76%</t>
+    <t>80,63%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -2028,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAABD649-AE1A-4BA2-848F-08B9A55A547A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA122347-6176-40DC-9B7A-073AA15B6FA5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3252,13 +3282,13 @@
         <v>23858</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -3267,13 +3297,13 @@
         <v>40281</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3318,13 @@
         <v>412604</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>327</v>
@@ -3303,13 +3333,13 @@
         <v>339841</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>730</v>
@@ -3318,13 +3348,13 @@
         <v>752446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3422,13 @@
         <v>87458</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
@@ -3407,13 +3437,13 @@
         <v>157891</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>245</v>
@@ -3422,13 +3452,13 @@
         <v>245349</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,10 +3473,10 @@
         <v>1947663</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>171</v>
@@ -3559,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAF0886-9190-4B5E-A45F-DE94B98700C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC9F6E4-1D16-44F3-B6A8-2EBB14406901}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4595,13 +4625,13 @@
         <v>74324</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -4610,13 +4640,13 @@
         <v>143722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4625,13 +4655,13 @@
         <v>218046</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4676,13 @@
         <v>316207</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -4661,13 +4691,13 @@
         <v>224279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>506</v>
@@ -4676,13 +4706,13 @@
         <v>540486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4780,13 @@
         <v>63359</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -4765,13 +4795,13 @@
         <v>94308</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -4780,13 +4810,13 @@
         <v>157667</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4831,13 @@
         <v>454003</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>312</v>
@@ -4816,13 +4846,13 @@
         <v>339486</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>738</v>
@@ -4831,13 +4861,13 @@
         <v>793489</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4935,13 @@
         <v>362561</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>529</v>
@@ -4920,13 +4950,13 @@
         <v>574797</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>865</v>
@@ -4935,13 +4965,13 @@
         <v>937358</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4986,13 @@
         <v>1696771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>984</v>
@@ -4971,13 +5001,13 @@
         <v>1058637</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>2602</v>
@@ -4986,13 +5016,13 @@
         <v>2755408</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1399A980-3F76-429C-A698-862E14D24F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7299E808-68EA-49C5-9A30-34EF248DA438}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5089,7 +5119,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5196,13 +5226,13 @@
         <v>22506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -5211,13 +5241,13 @@
         <v>30243</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -5226,13 +5256,13 @@
         <v>52749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5277,13 @@
         <v>120666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -5262,13 +5292,13 @@
         <v>88055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -5277,13 +5307,13 @@
         <v>208720</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5381,13 @@
         <v>34766</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5366,13 +5396,13 @@
         <v>42491</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -5381,13 +5411,13 @@
         <v>77257</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5432,13 @@
         <v>260081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>166</v>
@@ -5417,13 +5447,13 @@
         <v>172479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>412</v>
@@ -5432,13 +5462,13 @@
         <v>432561</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5536,13 @@
         <v>28027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -5521,13 +5551,13 @@
         <v>29116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -5536,13 +5566,13 @@
         <v>57143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5587,13 @@
         <v>157590</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>119</v>
@@ -5572,13 +5602,13 @@
         <v>114927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>284</v>
@@ -5587,13 +5617,13 @@
         <v>272517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5691,13 @@
         <v>38488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5676,13 +5706,13 @@
         <v>69716</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -5691,13 +5721,13 @@
         <v>108203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5742,13 @@
         <v>144181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -5727,13 +5757,13 @@
         <v>98610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -5742,13 +5772,13 @@
         <v>242792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5846,13 @@
         <v>10045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5831,13 +5861,13 @@
         <v>24355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -5846,13 +5876,13 @@
         <v>34400</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5897,13 @@
         <v>119944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5882,13 +5912,13 @@
         <v>76862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -5897,13 +5927,13 @@
         <v>196807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +6001,13 @@
         <v>30394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -5986,13 +6016,13 @@
         <v>45844</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -6001,13 +6031,13 @@
         <v>76237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6052,13 @@
         <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -6037,13 +6067,13 @@
         <v>99806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>240</v>
@@ -6052,13 +6082,13 @@
         <v>241536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,13 +6156,13 @@
         <v>24912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -6141,13 +6171,13 @@
         <v>65238</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -6156,13 +6186,13 @@
         <v>90150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6207,13 @@
         <v>358206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -6192,13 +6222,13 @@
         <v>297917</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
         <v>606</v>
@@ -6207,13 +6237,13 @@
         <v>656123</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6311,13 @@
         <v>60019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>97</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -6296,13 +6326,13 @@
         <v>83660</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -6311,13 +6341,13 @@
         <v>143679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6362,13 @@
         <v>401963</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>105</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>284</v>
@@ -6347,13 +6377,13 @@
         <v>297268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>666</v>
@@ -6362,13 +6392,13 @@
         <v>699231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6466,13 @@
         <v>249156</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>351</v>
@@ -6451,13 +6481,13 @@
         <v>390662</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>241</v>
+        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>595</v>
@@ -6466,13 +6496,13 @@
         <v>639818</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6517,13 @@
         <v>1704362</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>1227</v>
@@ -6502,13 +6532,13 @@
         <v>1245926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>250</v>
+        <v>476</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
         <v>2837</v>
@@ -6517,13 +6547,13 @@
         <v>2950287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>228</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,7 +6633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE9B48A-3041-403E-B140-DC95A6736356}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54FB5DC-5E1A-420A-890B-D308ACC998D2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6620,7 +6650,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6727,13 +6757,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6742,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6757,13 +6787,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,10 +6808,10 @@
         <v>88636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -6793,10 +6823,10 @@
         <v>66717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6808,10 +6838,10 @@
         <v>155353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -6882,13 +6912,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6897,13 +6927,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6912,13 +6942,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,10 +6963,10 @@
         <v>254112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -6948,10 +6978,10 @@
         <v>195005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -6963,10 +6993,10 @@
         <v>449117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -7037,13 +7067,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7052,13 +7082,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7067,13 +7097,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,10 +7118,10 @@
         <v>131461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -7103,10 +7133,10 @@
         <v>112621</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -7118,10 +7148,10 @@
         <v>244082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -7192,13 +7222,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7207,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7222,13 +7252,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7243,10 +7273,10 @@
         <v>135809</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -7258,10 +7288,10 @@
         <v>150057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -7273,10 +7303,10 @@
         <v>285866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -7347,13 +7377,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7362,13 +7392,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7377,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,10 +7428,10 @@
         <v>101565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7413,10 +7443,10 @@
         <v>83375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -7428,10 +7458,10 @@
         <v>184940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -7502,13 +7532,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7517,13 +7547,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7532,13 +7562,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,10 +7583,10 @@
         <v>113623</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -7568,10 +7598,10 @@
         <v>97452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -7583,10 +7613,10 @@
         <v>211074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -7657,13 +7687,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7672,13 +7702,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7687,13 +7717,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,10 +7738,10 @@
         <v>243610</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -7723,10 +7753,10 @@
         <v>214131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -7738,10 +7768,10 @@
         <v>457741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -7812,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7827,13 +7857,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7842,13 +7872,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,10 +7893,10 @@
         <v>549657</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -7878,10 +7908,10 @@
         <v>423551</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -7893,10 +7923,10 @@
         <v>973207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>30</v>
@@ -7967,13 +7997,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7982,13 +8012,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7997,13 +8027,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,10 +8048,10 @@
         <v>1618473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>30</v>
@@ -8033,10 +8063,10 @@
         <v>1342908</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>30</v>
@@ -8048,10 +8078,10 @@
         <v>2961381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87E5261B-314D-43B5-B0BB-010501993D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F2FF26-C7CE-42B2-85D9-39FF7D515DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFC8BBE4-77DC-4A1F-9239-4E0D6A5580AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F255B27-0F51-42BB-B1E8-B15AE8376571}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="528">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2007 (Tasa respuesta: 53,56%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,09%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>5,2%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>90,96%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>93,2%</t>
   </si>
   <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>90,66%</t>
   </si>
   <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +254,55 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>91,62%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,55 +311,55 @@
     <t>6,05%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>81,24%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,55 +368,55 @@
     <t>4,71%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -425,55 +425,55 @@
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -482,97 +482,91 @@
     <t>3,83%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>89,86%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>92,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -587,898 +581,886 @@
     <t>15,99%</t>
   </si>
   <si>
-    <t>11,72%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>79,58%</t>
   </si>
   <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2016 (Tasa respuesta: 52,25%)</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>89,58%</t>
   </si>
   <si>
     <t>79,79%</t>
   </si>
   <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
+    <t>27,33%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
   </si>
   <si>
     <t>78,93%</t>
   </si>
   <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>72,67%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
   </si>
   <si>
     <t>69,17%</t>
   </si>
   <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>75,94%</t>
   </si>
   <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
   </si>
   <si>
     <t>23,99%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
   </si>
   <si>
     <t>82,34%</t>
   </si>
   <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
   </si>
   <si>
     <t>68,52%</t>
   </si>
   <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>76,01%</t>
   </si>
   <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>17,96%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>82,04%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>10,22%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>89,78%</t>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>19,37%</t>
+    <t>16,56%</t>
   </si>
   <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>80,63%</t>
+    <t>83,44%</t>
   </si>
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2023 (Tasa respuesta: 35,25%)</t>
@@ -1511,16 +1493,10 @@
     <t>99,21%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,83%</t>
   </si>
   <si>
     <t>0,49%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -2058,7 +2034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA122347-6176-40DC-9B7A-073AA15B6FA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD66AB0-7F22-4AE0-9DF0-47473DD9F032}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3270,10 +3246,10 @@
         <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -3282,13 +3258,13 @@
         <v>23858</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -3297,13 +3273,13 @@
         <v>40281</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,16 +3291,16 @@
         <v>403</v>
       </c>
       <c r="D26" s="7">
-        <v>412604</v>
+        <v>412605</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
       <c r="H26" s="7">
         <v>327</v>
@@ -3333,13 +3309,13 @@
         <v>339841</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>730</v>
@@ -3348,13 +3324,13 @@
         <v>752446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3342,7 @@
         <v>420</v>
       </c>
       <c r="D27" s="7">
-        <v>429027</v>
+        <v>429028</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -3422,13 +3398,13 @@
         <v>87458</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
@@ -3437,13 +3413,13 @@
         <v>157891</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>245</v>
@@ -3452,13 +3428,13 @@
         <v>245349</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3449,13 @@
         <v>1947663</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>1364</v>
@@ -3488,13 +3464,13 @@
         <v>1399722</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>3242</v>
@@ -3503,13 +3479,13 @@
         <v>3347385</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3541,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC9F6E4-1D16-44F3-B6A8-2EBB14406901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649FFE8-1324-4696-9D2C-5EDAF3A4086A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3606,7 +3582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3711,39 +3687,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,39 +3732,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,39 +3777,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,13 +3826,13 @@
         <v>47292</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -3865,13 +3841,13 @@
         <v>67879</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -3880,13 +3856,13 @@
         <v>115171</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3877,13 @@
         <v>248476</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -3916,13 +3892,13 @@
         <v>147559</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>378</v>
@@ -3931,13 +3907,13 @@
         <v>396034</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3981,13 @@
         <v>37025</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4020,13 +3996,13 @@
         <v>56546</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -4035,13 +4011,13 @@
         <v>93571</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4032,13 @@
         <v>149059</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -4071,13 +4047,13 @@
         <v>81376</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>227</v>
@@ -4086,13 +4062,13 @@
         <v>230435</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4136,13 @@
         <v>84399</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>123</v>
@@ -4175,13 +4151,13 @@
         <v>133020</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -4190,13 +4166,13 @@
         <v>217420</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4187,13 @@
         <v>317348</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -4226,13 +4202,13 @@
         <v>163439</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>452</v>
@@ -4241,13 +4217,13 @@
         <v>480786</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4291,13 @@
         <v>19330</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -4330,13 +4306,13 @@
         <v>30301</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4345,13 +4321,13 @@
         <v>49631</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4342,13 @@
         <v>99164</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4381,13 +4357,13 @@
         <v>41200</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -4396,13 +4372,13 @@
         <v>140364</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4446,13 @@
         <v>36832</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -4485,13 +4461,13 @@
         <v>49020</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -4500,13 +4476,13 @@
         <v>85852</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4497,13 @@
         <v>112515</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -4536,13 +4512,13 @@
         <v>61299</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -4551,13 +4527,13 @@
         <v>173814</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4601,13 @@
         <v>74324</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -4640,13 +4616,13 @@
         <v>143722</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4655,13 +4631,13 @@
         <v>218046</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4652,13 @@
         <v>316207</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -4691,13 +4667,13 @@
         <v>224279</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>506</v>
@@ -4706,13 +4682,13 @@
         <v>540486</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4756,13 @@
         <v>63359</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -4795,13 +4771,13 @@
         <v>94308</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -4810,13 +4786,13 @@
         <v>157667</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4807,13 @@
         <v>454003</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>312</v>
@@ -4846,10 +4822,10 @@
         <v>339486</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>301</v>
@@ -5078,7 +5054,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5102,7 +5078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7299E808-68EA-49C5-9A30-34EF248DA438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078836DC-6145-44CC-B01F-410018B1635F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5384,10 +5360,10 @@
         <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5396,13 +5372,13 @@
         <v>42491</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -5411,13 +5387,13 @@
         <v>77257</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5408,13 @@
         <v>260081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>166</v>
@@ -5447,28 +5423,28 @@
         <v>172479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>412</v>
       </c>
       <c r="N8" s="7">
-        <v>432561</v>
+        <v>432560</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,7 +5486,7 @@
         <v>482</v>
       </c>
       <c r="N9" s="7">
-        <v>509818</v>
+        <v>509817</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5536,13 +5512,13 @@
         <v>28027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -5551,13 +5527,13 @@
         <v>29116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -5566,13 +5542,13 @@
         <v>57143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5563,13 @@
         <v>157590</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>119</v>
@@ -5602,13 +5578,13 @@
         <v>114927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>284</v>
@@ -5617,13 +5593,13 @@
         <v>272517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5667,13 @@
         <v>38488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5706,13 +5682,13 @@
         <v>69716</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -5721,13 +5697,13 @@
         <v>108203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5718,13 @@
         <v>144181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -5757,13 +5733,13 @@
         <v>98610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -5772,13 +5748,13 @@
         <v>242792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5822,13 @@
         <v>10045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5861,13 +5837,13 @@
         <v>24355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -5876,13 +5852,13 @@
         <v>34400</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5873,13 @@
         <v>119944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5912,13 +5888,13 @@
         <v>76862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -5927,13 +5903,13 @@
         <v>196807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,13 +5977,13 @@
         <v>30394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -6016,13 +5992,13 @@
         <v>45844</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -6031,13 +6007,13 @@
         <v>76237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +6028,13 @@
         <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -6067,13 +6043,13 @@
         <v>99806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>240</v>
@@ -6082,13 +6058,13 @@
         <v>241536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +6132,13 @@
         <v>24912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -6171,13 +6147,13 @@
         <v>65238</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>200</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -6186,13 +6162,13 @@
         <v>90150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,13 +6183,13 @@
         <v>358206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -6222,13 +6198,13 @@
         <v>297917</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>210</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>606</v>
@@ -6237,13 +6213,13 @@
         <v>656123</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>103</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,13 +6287,13 @@
         <v>60019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>97</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -6326,13 +6302,13 @@
         <v>83660</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -6341,13 +6317,13 @@
         <v>143679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,13 +6338,13 @@
         <v>401963</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>284</v>
@@ -6377,13 +6353,13 @@
         <v>297268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>666</v>
@@ -6392,13 +6368,13 @@
         <v>699231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,13 +6442,13 @@
         <v>249156</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>351</v>
@@ -6481,13 +6457,13 @@
         <v>390662</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>595</v>
@@ -6496,13 +6472,13 @@
         <v>639818</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>294</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>471</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6493,13 @@
         <v>1704362</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H29" s="7">
         <v>1227</v>
@@ -6532,13 +6508,13 @@
         <v>1245926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>2837</v>
@@ -6547,13 +6523,13 @@
         <v>2950287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>479</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,7 +6585,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6633,7 +6609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54FB5DC-5E1A-420A-890B-D308ACC998D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD9EFC4-4D66-4DAF-81EE-8B53046E5DAD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6650,7 +6626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6757,13 +6733,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6772,13 +6748,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6787,13 +6763,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,10 +6784,10 @@
         <v>88636</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -6823,10 +6799,10 @@
         <v>66717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6838,10 +6814,10 @@
         <v>155353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -6912,13 +6888,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>490</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6927,13 +6903,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6942,13 +6918,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,10 +6939,10 @@
         <v>254112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>493</v>
+        <v>138</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -6978,10 +6954,10 @@
         <v>195005</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -6993,10 +6969,10 @@
         <v>449117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -7067,13 +7043,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7082,13 +7058,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7097,13 +7073,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,10 +7094,10 @@
         <v>131461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -7133,10 +7109,10 @@
         <v>112621</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -7148,10 +7124,10 @@
         <v>244082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -7222,13 +7198,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7237,13 +7213,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7252,13 +7228,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,10 +7249,10 @@
         <v>135809</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -7288,10 +7264,10 @@
         <v>150057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -7303,10 +7279,10 @@
         <v>285866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -7377,13 +7353,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7392,13 +7368,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7407,13 +7383,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,10 +7404,10 @@
         <v>101565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7443,10 +7419,10 @@
         <v>83375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -7458,10 +7434,10 @@
         <v>184940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -7532,13 +7508,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7547,13 +7523,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7562,13 +7538,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,10 +7559,10 @@
         <v>113623</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -7598,10 +7574,10 @@
         <v>97452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -7613,10 +7589,10 @@
         <v>211074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -7687,13 +7663,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7702,13 +7678,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7717,13 +7693,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,10 +7714,10 @@
         <v>243610</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -7753,10 +7729,10 @@
         <v>214131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -7768,10 +7744,10 @@
         <v>457741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -7842,13 +7818,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7857,13 +7833,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7872,13 +7848,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,10 +7869,10 @@
         <v>549657</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -7908,10 +7884,10 @@
         <v>423551</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -7923,10 +7899,10 @@
         <v>973207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>30</v>
@@ -7997,13 +7973,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8012,13 +7988,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8027,13 +8003,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,10 +8024,10 @@
         <v>1618473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>30</v>
@@ -8063,10 +8039,10 @@
         <v>1342908</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>30</v>
@@ -8078,10 +8054,10 @@
         <v>2961381</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>30</v>
@@ -8140,7 +8116,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A97-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A97-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F2FF26-C7CE-42B2-85D9-39FF7D515DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41FDA28-FA44-4BAD-BD1B-378C7A003864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F255B27-0F51-42BB-B1E8-B15AE8376571}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C70FBF69-5B42-4832-830E-13CD7075C2EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="545">
   <si>
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2007 (Tasa respuesta: 53,56%)</t>
   </si>
@@ -575,7 +575,58 @@
     <t>Población según si ha consumido otro tipo de medicamento / respuesta 1 en 2012 (Tasa respuesta: 53,28%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
   </si>
   <si>
     <t>15,99%</t>
@@ -686,58 +737,58 @@
     <t>76,04%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>16,31%</t>
@@ -2034,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD66AB0-7F22-4AE0-9DF0-47473DD9F032}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F7EF45-3200-476B-B19B-906567CFA004}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3291,7 +3342,7 @@
         <v>403</v>
       </c>
       <c r="D26" s="7">
-        <v>412605</v>
+        <v>412604</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>153</v>
@@ -3342,7 +3393,7 @@
         <v>420</v>
       </c>
       <c r="D27" s="7">
-        <v>429028</v>
+        <v>429027</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -3565,7 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6649FFE8-1324-4696-9D2C-5EDAF3A4086A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E1774-41BD-463D-BDD9-7131F29F3E5E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3683,43 +3734,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D4" s="7">
+        <v>47189</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="I4" s="7">
+        <v>52419</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="N4" s="7">
+        <v>99607</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,43 +3785,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D5" s="7">
+        <v>126219</v>
+      </c>
       <c r="E5" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="7">
+        <v>56</v>
+      </c>
+      <c r="I5" s="7">
+        <v>64369</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="7">
         <v>178</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>190589</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,43 +3836,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="D6" s="7">
+        <v>173408</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="I6" s="7">
+        <v>116788</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>269</v>
+      </c>
+      <c r="N6" s="7">
+        <v>290196</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3895,13 @@
         <v>47292</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -3841,13 +3910,13 @@
         <v>67879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -3856,13 +3925,13 @@
         <v>115171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3946,13 @@
         <v>248476</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>139</v>
@@ -3892,13 +3961,13 @@
         <v>147559</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>378</v>
@@ -3907,13 +3976,13 @@
         <v>396034</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +4050,13 @@
         <v>37025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -3996,13 +4065,13 @@
         <v>56546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -4011,13 +4080,13 @@
         <v>93571</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4101,13 @@
         <v>149059</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
@@ -4047,13 +4116,13 @@
         <v>81376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>227</v>
@@ -4062,13 +4131,13 @@
         <v>230435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,49 +4199,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>84399</v>
+        <v>37211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="I13" s="7">
-        <v>133020</v>
+        <v>80602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="N13" s="7">
-        <v>217420</v>
+        <v>117812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,49 +4250,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>302</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7">
-        <v>317348</v>
+        <v>191128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>163439</v>
+        <v>99069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>452</v>
+        <v>274</v>
       </c>
       <c r="N14" s="7">
-        <v>480786</v>
+        <v>290198</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,10 +4301,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>214</v>
       </c>
       <c r="D15" s="7">
-        <v>401747</v>
+        <v>228339</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4247,10 +4316,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="I15" s="7">
-        <v>296459</v>
+        <v>179671</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4262,10 +4331,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>654</v>
+        <v>385</v>
       </c>
       <c r="N15" s="7">
-        <v>698206</v>
+        <v>408010</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4291,13 +4360,13 @@
         <v>19330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -4306,13 +4375,13 @@
         <v>30301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -4321,13 +4390,13 @@
         <v>49631</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4411,13 @@
         <v>99164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -4357,13 +4426,13 @@
         <v>41200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>133</v>
@@ -4372,13 +4441,13 @@
         <v>140364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4515,13 @@
         <v>36832</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -4461,13 +4530,13 @@
         <v>49020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>84</v>
@@ -4476,13 +4545,13 @@
         <v>85852</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4566,13 @@
         <v>112515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>60</v>
@@ -4512,13 +4581,13 @@
         <v>61299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>168</v>
@@ -4527,13 +4596,13 @@
         <v>173814</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4670,13 @@
         <v>74324</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -4616,13 +4685,13 @@
         <v>143722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4631,13 +4700,13 @@
         <v>218046</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4721,13 @@
         <v>316207</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>207</v>
@@ -4667,13 +4736,13 @@
         <v>224279</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>506</v>
@@ -4682,13 +4751,13 @@
         <v>540486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4825,13 @@
         <v>63359</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>84</v>
@@ -4771,13 +4840,13 @@
         <v>94308</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -4786,13 +4855,13 @@
         <v>157667</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4876,13 @@
         <v>454003</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>312</v>
@@ -4822,13 +4891,13 @@
         <v>339486</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>738</v>
@@ -4837,13 +4906,13 @@
         <v>793489</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4980,13 @@
         <v>362561</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>529</v>
@@ -4926,13 +4995,13 @@
         <v>574797</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>865</v>
@@ -4941,13 +5010,13 @@
         <v>937358</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +5031,13 @@
         <v>1696771</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>984</v>
@@ -4977,13 +5046,13 @@
         <v>1058637</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>2602</v>
@@ -4992,13 +5061,13 @@
         <v>2755408</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078836DC-6145-44CC-B01F-410018B1635F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD05407-8E28-434D-9B94-F59523997977}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5095,7 +5164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5202,13 +5271,13 @@
         <v>22506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -5217,13 +5286,13 @@
         <v>30243</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -5232,13 +5301,13 @@
         <v>52749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5322,13 @@
         <v>120666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -5268,13 +5337,13 @@
         <v>88055</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>193</v>
@@ -5283,13 +5352,13 @@
         <v>208720</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5426,13 @@
         <v>34766</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5372,13 +5441,13 @@
         <v>42491</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -5387,13 +5456,13 @@
         <v>77257</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,10 +5477,10 @@
         <v>260081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>42</v>
@@ -5423,13 +5492,13 @@
         <v>172479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>412</v>
@@ -5438,13 +5507,13 @@
         <v>432560</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5581,13 @@
         <v>28027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -5527,13 +5596,13 @@
         <v>29116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -5542,13 +5611,13 @@
         <v>57143</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5632,13 @@
         <v>157590</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>119</v>
@@ -5578,13 +5647,13 @@
         <v>114927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>284</v>
@@ -5593,13 +5662,13 @@
         <v>272517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5736,13 @@
         <v>38488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -5682,13 +5751,13 @@
         <v>69716</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -5697,13 +5766,13 @@
         <v>108203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5787,13 @@
         <v>144181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>98</v>
@@ -5733,13 +5802,13 @@
         <v>98610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>234</v>
@@ -5748,13 +5817,13 @@
         <v>242792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5891,13 @@
         <v>10045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -5837,13 +5906,13 @@
         <v>24355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -5852,13 +5921,13 @@
         <v>34400</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5942,13 @@
         <v>119944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -5888,13 +5957,13 @@
         <v>76862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>202</v>
@@ -5903,13 +5972,13 @@
         <v>196807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,13 +6046,13 @@
         <v>30394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -5992,13 +6061,13 @@
         <v>45844</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -6007,13 +6076,13 @@
         <v>76237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6097,13 @@
         <v>141729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>102</v>
@@ -6043,13 +6112,13 @@
         <v>99806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>240</v>
@@ -6058,13 +6127,13 @@
         <v>241536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6201,13 @@
         <v>24912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -6147,13 +6216,13 @@
         <v>65238</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -6165,10 +6234,10 @@
         <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6252,13 @@
         <v>358206</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -6198,13 +6267,13 @@
         <v>297917</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
         <v>606</v>
@@ -6216,10 +6285,10 @@
         <v>103</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6356,13 @@
         <v>60019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -6302,13 +6371,13 @@
         <v>83660</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -6317,13 +6386,13 @@
         <v>143679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6407,13 @@
         <v>401963</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="H26" s="7">
         <v>284</v>
@@ -6353,13 +6422,13 @@
         <v>297268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="M26" s="7">
         <v>666</v>
@@ -6368,13 +6437,13 @@
         <v>699231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6511,13 @@
         <v>249156</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="H28" s="7">
         <v>351</v>
@@ -6457,13 +6526,13 @@
         <v>390662</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="M28" s="7">
         <v>595</v>
@@ -6472,13 +6541,13 @@
         <v>639818</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,16 +6559,16 @@
         <v>1610</v>
       </c>
       <c r="D29" s="7">
-        <v>1704362</v>
+        <v>1704361</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="H29" s="7">
         <v>1227</v>
@@ -6508,13 +6577,13 @@
         <v>1245926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="M29" s="7">
         <v>2837</v>
@@ -6523,13 +6592,13 @@
         <v>2950287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,7 +6610,7 @@
         <v>1854</v>
       </c>
       <c r="D30" s="7">
-        <v>1953518</v>
+        <v>1953517</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6609,7 +6678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD9EFC4-4D66-4DAF-81EE-8B53046E5DAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC3348D-0FEB-47EC-9740-FC308DF24AA3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6626,7 +6695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6733,13 +6802,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6748,13 +6817,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6763,13 +6832,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6850,13 @@
         <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>88636</v>
+        <v>110075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -6796,13 +6865,13 @@
         <v>133</v>
       </c>
       <c r="I5" s="7">
-        <v>66717</v>
+        <v>73326</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6811,13 +6880,13 @@
         <v>242</v>
       </c>
       <c r="N5" s="7">
-        <v>155353</v>
+        <v>183401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -6832,7 +6901,7 @@
         <v>109</v>
       </c>
       <c r="D6" s="7">
-        <v>88636</v>
+        <v>110075</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6847,7 +6916,7 @@
         <v>133</v>
       </c>
       <c r="I6" s="7">
-        <v>66717</v>
+        <v>73326</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6862,7 +6931,7 @@
         <v>242</v>
       </c>
       <c r="N6" s="7">
-        <v>155353</v>
+        <v>183401</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6888,10 +6957,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>128</v>
@@ -6903,13 +6972,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6918,13 +6987,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,10 +7005,10 @@
         <v>162</v>
       </c>
       <c r="D8" s="7">
-        <v>254112</v>
+        <v>261757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>138</v>
@@ -6951,13 +7020,13 @@
         <v>230</v>
       </c>
       <c r="I8" s="7">
-        <v>195005</v>
+        <v>181751</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -6966,13 +7035,13 @@
         <v>392</v>
       </c>
       <c r="N8" s="7">
-        <v>449117</v>
+        <v>443508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>30</v>
@@ -6987,7 +7056,7 @@
         <v>162</v>
       </c>
       <c r="D9" s="7">
-        <v>254112</v>
+        <v>261757</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7002,7 +7071,7 @@
         <v>230</v>
       </c>
       <c r="I9" s="7">
-        <v>195005</v>
+        <v>181751</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7017,7 +7086,7 @@
         <v>392</v>
       </c>
       <c r="N9" s="7">
-        <v>449117</v>
+        <v>443508</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7043,13 +7112,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7058,13 +7127,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7073,13 +7142,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7160,13 @@
         <v>125</v>
       </c>
       <c r="D11" s="7">
-        <v>131461</v>
+        <v>131069</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -7106,13 +7175,13 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>112621</v>
+        <v>106400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -7121,13 +7190,13 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>244082</v>
+        <v>237469</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -7142,7 +7211,7 @@
         <v>125</v>
       </c>
       <c r="D12" s="7">
-        <v>131461</v>
+        <v>131069</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7157,7 +7226,7 @@
         <v>134</v>
       </c>
       <c r="I12" s="7">
-        <v>112621</v>
+        <v>106400</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7172,7 +7241,7 @@
         <v>259</v>
       </c>
       <c r="N12" s="7">
-        <v>244082</v>
+        <v>237469</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7198,13 +7267,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7213,13 +7282,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7228,13 +7297,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,13 +7315,13 @@
         <v>106</v>
       </c>
       <c r="D14" s="7">
-        <v>135809</v>
+        <v>133345</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -7261,13 +7330,13 @@
         <v>170</v>
       </c>
       <c r="I14" s="7">
-        <v>150057</v>
+        <v>162714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>30</v>
@@ -7276,13 +7345,13 @@
         <v>276</v>
       </c>
       <c r="N14" s="7">
-        <v>285866</v>
+        <v>296059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>30</v>
@@ -7297,7 +7366,7 @@
         <v>106</v>
       </c>
       <c r="D15" s="7">
-        <v>135809</v>
+        <v>133345</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7312,7 +7381,7 @@
         <v>170</v>
       </c>
       <c r="I15" s="7">
-        <v>150057</v>
+        <v>162714</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7327,7 +7396,7 @@
         <v>276</v>
       </c>
       <c r="N15" s="7">
-        <v>285866</v>
+        <v>296059</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7353,13 +7422,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7368,13 +7437,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7383,13 +7452,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,13 +7470,13 @@
         <v>135</v>
       </c>
       <c r="D17" s="7">
-        <v>101565</v>
+        <v>92236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -7416,13 +7485,13 @@
         <v>159</v>
       </c>
       <c r="I17" s="7">
-        <v>83375</v>
+        <v>74021</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -7431,13 +7500,13 @@
         <v>294</v>
       </c>
       <c r="N17" s="7">
-        <v>184940</v>
+        <v>166257</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>30</v>
@@ -7452,7 +7521,7 @@
         <v>135</v>
       </c>
       <c r="D18" s="7">
-        <v>101565</v>
+        <v>92236</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7467,7 +7536,7 @@
         <v>159</v>
       </c>
       <c r="I18" s="7">
-        <v>83375</v>
+        <v>74021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7482,7 +7551,7 @@
         <v>294</v>
       </c>
       <c r="N18" s="7">
-        <v>184940</v>
+        <v>166257</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7508,13 +7577,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7523,13 +7592,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7538,13 +7607,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,13 +7625,13 @@
         <v>122</v>
       </c>
       <c r="D20" s="7">
-        <v>113623</v>
+        <v>112140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -7571,13 +7640,13 @@
         <v>126</v>
       </c>
       <c r="I20" s="7">
-        <v>97452</v>
+        <v>90846</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -7586,13 +7655,13 @@
         <v>248</v>
       </c>
       <c r="N20" s="7">
-        <v>211074</v>
+        <v>202986</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>30</v>
@@ -7607,7 +7676,7 @@
         <v>122</v>
       </c>
       <c r="D21" s="7">
-        <v>113623</v>
+        <v>112140</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7622,7 +7691,7 @@
         <v>126</v>
       </c>
       <c r="I21" s="7">
-        <v>97452</v>
+        <v>90846</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7637,7 +7706,7 @@
         <v>248</v>
       </c>
       <c r="N21" s="7">
-        <v>211074</v>
+        <v>202986</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7663,13 +7732,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7678,13 +7747,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7693,13 +7762,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,13 +7780,13 @@
         <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>243610</v>
+        <v>249097</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>30</v>
@@ -7726,13 +7795,13 @@
         <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>214131</v>
+        <v>200689</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -7741,13 +7810,13 @@
         <v>490</v>
       </c>
       <c r="N23" s="7">
-        <v>457741</v>
+        <v>449786</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>30</v>
@@ -7762,7 +7831,7 @@
         <v>212</v>
       </c>
       <c r="D24" s="7">
-        <v>243610</v>
+        <v>249097</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7777,7 +7846,7 @@
         <v>278</v>
       </c>
       <c r="I24" s="7">
-        <v>214131</v>
+        <v>200689</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7792,7 +7861,7 @@
         <v>490</v>
       </c>
       <c r="N24" s="7">
-        <v>457741</v>
+        <v>449786</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7818,13 +7887,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7833,13 +7902,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7848,13 +7917,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7866,13 +7935,13 @@
         <v>417</v>
       </c>
       <c r="D26" s="7">
-        <v>549657</v>
+        <v>664472</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>30</v>
@@ -7881,13 +7950,13 @@
         <v>464</v>
       </c>
       <c r="I26" s="7">
-        <v>423551</v>
+        <v>345899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -7896,13 +7965,13 @@
         <v>881</v>
       </c>
       <c r="N26" s="7">
-        <v>973207</v>
+        <v>1010371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>30</v>
@@ -7917,7 +7986,7 @@
         <v>417</v>
       </c>
       <c r="D27" s="7">
-        <v>549657</v>
+        <v>664472</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7932,7 +8001,7 @@
         <v>464</v>
       </c>
       <c r="I27" s="7">
-        <v>423551</v>
+        <v>345899</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7947,7 +8016,7 @@
         <v>881</v>
       </c>
       <c r="N27" s="7">
-        <v>973207</v>
+        <v>1010371</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7973,13 +8042,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7988,13 +8057,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8003,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,13 +8090,13 @@
         <v>1388</v>
       </c>
       <c r="D29" s="7">
-        <v>1618473</v>
+        <v>1754190</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>30</v>
@@ -8036,13 +8105,13 @@
         <v>1694</v>
       </c>
       <c r="I29" s="7">
-        <v>1342908</v>
+        <v>1235646</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>30</v>
@@ -8051,13 +8120,13 @@
         <v>3082</v>
       </c>
       <c r="N29" s="7">
-        <v>2961381</v>
+        <v>2989837</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>30</v>
@@ -8072,7 +8141,7 @@
         <v>1388</v>
       </c>
       <c r="D30" s="7">
-        <v>1618473</v>
+        <v>1754190</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8087,7 +8156,7 @@
         <v>1694</v>
       </c>
       <c r="I30" s="7">
-        <v>1342908</v>
+        <v>1235646</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8102,7 +8171,7 @@
         <v>3082</v>
       </c>
       <c r="N30" s="7">
-        <v>2961381</v>
+        <v>2989837</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
